--- a/input/calorimetry/test_2.xlsx
+++ b/input/calorimetry/test_2.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KEVreplica\input\calorimetry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{493EBA44-8408-45C1-A5AE-7FEF824486B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="input_k_constants_log10" sheetId="2" r:id="rId1"/>
     <sheet name="input_concentrations" sheetId="3" r:id="rId2"/>
-    <sheet name="component_name" sheetId="4" r:id="rId3"/>
-    <sheet name="heats" sheetId="5" r:id="rId4"/>
-    <sheet name="targets" sheetId="6" r:id="rId5"/>
-    <sheet name="input_stoich_coefficients" sheetId="1" r:id="rId6"/>
-    <sheet name="enthalpies" sheetId="7" r:id="rId7"/>
+    <sheet name="setup" sheetId="8" r:id="rId3"/>
+    <sheet name="component_name" sheetId="4" r:id="rId4"/>
+    <sheet name="heats" sheetId="5" r:id="rId5"/>
+    <sheet name="targets" sheetId="6" r:id="rId6"/>
+    <sheet name="input_stoich_coefficients" sheetId="1" r:id="rId7"/>
+    <sheet name="enthalpies" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>lg_k</t>
   </si>
@@ -82,16 +82,25 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Calorimeter</t>
+  </si>
+  <si>
+    <t>DSC</t>
+  </si>
+  <si>
+    <t>Initial volume</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,21 +412,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.15</v>
       </c>
@@ -428,19 +437,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -448,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -456,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>7.2939999999999995E-4</v>
       </c>
@@ -465,7 +474,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>7.2818650146818655E-4</v>
       </c>
@@ -474,7 +483,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7.2697703401077766E-4</v>
       </c>
@@ -483,7 +492,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7.2577157757507116E-4</v>
       </c>
@@ -492,7 +501,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7.2457011224114879E-4</v>
       </c>
@@ -501,7 +510,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7.2337261822077829E-4</v>
       </c>
@@ -510,7 +519,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.2217907585632771E-4</v>
       </c>
@@ -519,7 +528,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7.2098946561968875E-4</v>
       </c>
@@ -528,7 +537,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7.1980376811121274E-4</v>
       </c>
@@ -537,7 +546,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7.1862196405865541E-4</v>
       </c>
@@ -546,7 +555,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7.1744403431613308E-4</v>
       </c>
@@ -555,7 +564,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7.1626995986308838E-4</v>
       </c>
@@ -563,7 +572,7 @@
         <v>7.8771240245559921E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7.1509972180326697E-4</v>
       </c>
@@ -571,7 +580,7 @@
         <v>8.5791866412234701E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.1393330136370324E-4</v>
       </c>
@@ -579,7 +588,7 @@
         <v>9.2789589474322307E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7.127706798937169E-4</v>
       </c>
@@ -587,7 +596,7 @@
         <v>9.9764521323120236E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.1161183886391856E-4</v>
       </c>
@@ -595,7 +604,7 @@
         <v>1.0671677312226277E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7.1045675986522547E-4</v>
       </c>
@@ -603,7 +612,7 @@
         <v>1.1364645531362694E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7.0930542460788685E-4</v>
       </c>
@@ -611,7 +620,7 @@
         <v>1.2055367762318046E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7.0815781492051806E-4</v>
       </c>
@@ -619,7 +628,7 @@
         <v>1.2743854906677344E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7.0701391274914551E-4</v>
       </c>
@@ -633,16 +642,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -652,17 +692,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -724,7 +764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -786,7 +826,7 @@
         <v>15.474943</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -848,7 +888,7 @@
         <v>1.588E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -910,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -977,17 +1017,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1000,17 +1040,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1021,7 +1061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1037,17 +1077,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>

--- a/input/calorimetry/test_2.xlsx
+++ b/input/calorimetry/test_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="input_k_constants_log10" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="input_stoich_coefficients" sheetId="1" r:id="rId7"/>
     <sheet name="enthalpies" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -438,15 +438,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B24"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -467,7 +468,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>7.2939999999999995E-4</v>
+        <v>8.6623199999999998E-4</v>
       </c>
       <c r="B3" s="1">
         <v>1.0000000000000001E-18</v>
@@ -476,164 +477,148 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>7.2818650146818655E-4</v>
+        <v>8.6479200600440191E-4</v>
       </c>
       <c r="B4" s="1">
-        <v>7.2801593437922144E-5</v>
+        <v>9.8894110120767572E-5</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7.2697703401077766E-4</v>
+        <v>8.6335679165531001E-4</v>
       </c>
       <c r="B5" s="1">
-        <v>1.4536135004439204E-4</v>
+        <v>1.9745996964508995E-4</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7.2577157757507116E-4</v>
+        <v>8.6192633319515696E-4</v>
       </c>
       <c r="B6" s="1">
-        <v>2.1768047284406337E-4</v>
+        <v>2.9569921016553907E-4</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7.2457011224114879E-4</v>
+        <v>8.6050060702356601E-4</v>
       </c>
       <c r="B7" s="1">
-        <v>2.8976015689548891E-4</v>
+        <v>3.9361345247931315E-4</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7.2337261822077829E-4</v>
+        <v>8.5907958969605382E-4</v>
       </c>
       <c r="B8" s="1">
-        <v>3.6160158935694809E-4</v>
+        <v>4.9120430667737303E-4</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7.2217907585632771E-4</v>
+        <v>8.5766325792274538E-4</v>
       </c>
       <c r="B9" s="1">
-        <v>4.3320594955162324E-4</v>
+        <v>5.8847337223269752E-4</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7.2098946561968875E-4</v>
+        <v>8.5625158856710113E-4</v>
       </c>
       <c r="B10" s="1">
-        <v>5.0457440903213112E-4</v>
+        <v>6.854222380876661E-4</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7.1980376811121274E-4</v>
+        <v>8.5484455864465723E-4</v>
       </c>
       <c r="B11" s="1">
-        <v>5.7570813164441832E-4</v>
+        <v>7.8205248274058057E-4</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7.1862196405865541E-4</v>
+        <v>8.5344214532177875E-4</v>
       </c>
       <c r="B12" s="1">
-        <v>6.4660827359102702E-4</v>
+        <v>8.7836567433133565E-4</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7.1744403431613308E-4</v>
+        <v>8.5204432591442364E-4</v>
       </c>
       <c r="B13" s="1">
-        <v>7.1727598349373802E-4</v>
+        <v>9.7436337072624702E-4</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7.1626995986308838E-4</v>
+        <v>8.5065107788692012E-4</v>
       </c>
       <c r="B14">
-        <v>7.8771240245559921E-4</v>
+        <v>1.0700471196020466E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7.1509972180326697E-4</v>
+        <v>8.4926237885075582E-4</v>
       </c>
       <c r="B15">
-        <v>8.5791866412234701E-4</v>
+        <v>1.1654184585290557E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7.1393330136370324E-4</v>
+        <v>8.4787820656337767E-4</v>
       </c>
       <c r="B16">
-        <v>9.2789589474322307E-4</v>
+        <v>1.2604789150535466E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7.127706798937169E-4</v>
+        <v>8.4649853892700545E-4</v>
       </c>
       <c r="B17">
-        <v>9.9764521323120236E-4</v>
+        <v>1.3552300067792952E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7.1161183886391856E-4</v>
+        <v>8.4512335398745527E-4</v>
       </c>
       <c r="B18">
-        <v>1.0671677312226277E-3</v>
+        <v>1.4496732414483447E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7.1045675986522547E-4</v>
+        <v>8.4375262993297495E-4</v>
       </c>
       <c r="B19">
-        <v>1.1364645531362694E-3</v>
+        <v>1.543810117020978E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7.0930542460788685E-4</v>
+        <v>8.4238634509309113E-4</v>
       </c>
       <c r="B20">
-        <v>1.2055367762318046E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>7.0815781492051806E-4</v>
-      </c>
-      <c r="B21">
-        <v>1.2743854906677344E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>7.0701391274914551E-4</v>
-      </c>
-      <c r="B22">
-        <v>1.3430117795587356E-3</v>
+        <v>1.6376421217549177E-3</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -676,15 +661,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -694,15 +679,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -757,138 +742,120 @@
       <c r="R1">
         <v>17</v>
       </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>15.024997000000001</v>
+        <v>15.024977</v>
       </c>
       <c r="C2">
-        <v>15.049994</v>
+        <v>15.049954</v>
       </c>
       <c r="D2">
-        <v>15.074991000000001</v>
+        <v>15.074930999999999</v>
       </c>
       <c r="E2">
-        <v>15.099988</v>
+        <v>15.099907999999999</v>
       </c>
       <c r="F2">
-        <v>15.124985000000001</v>
+        <v>15.124885000000001</v>
       </c>
       <c r="G2">
-        <v>15.149982</v>
+        <v>15.149862000000001</v>
       </c>
       <c r="H2">
-        <v>15.174979</v>
+        <v>15.174839</v>
       </c>
       <c r="I2">
-        <v>15.199975999999999</v>
+        <v>15.199816</v>
       </c>
       <c r="J2">
-        <v>15.224973</v>
+        <v>15.224793</v>
       </c>
       <c r="K2">
-        <v>15.249969999999999</v>
+        <v>15.24977</v>
       </c>
       <c r="L2">
-        <v>15.274967</v>
+        <v>15.274747</v>
       </c>
       <c r="M2">
-        <v>15.299963999999999</v>
+        <v>15.299723999999999</v>
       </c>
       <c r="N2">
-        <v>15.324961</v>
+        <v>15.324700999999999</v>
       </c>
       <c r="O2">
-        <v>15.349958000000001</v>
+        <v>15.349678000000001</v>
       </c>
       <c r="P2">
-        <v>15.374955</v>
+        <v>15.374655000000001</v>
       </c>
       <c r="Q2">
-        <v>15.399952000000001</v>
+        <v>15.399632</v>
       </c>
       <c r="R2">
-        <v>15.424949</v>
-      </c>
-      <c r="S2">
-        <v>15.449946000000001</v>
-      </c>
-      <c r="T2">
-        <v>15.474943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>15.424609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>5.9070999999999999E-2</v>
+        <v>7.3663000000000006E-2</v>
       </c>
       <c r="C3">
-        <v>5.4737000000000001E-2</v>
+        <v>7.4034000000000003E-2</v>
       </c>
       <c r="D3">
-        <v>5.4937E-2</v>
+        <v>7.4881000000000003E-2</v>
       </c>
       <c r="E3">
-        <v>5.4387999999999999E-2</v>
+        <v>7.3269000000000001E-2</v>
       </c>
       <c r="F3">
-        <v>5.4690000000000003E-2</v>
+        <v>7.4992000000000003E-2</v>
       </c>
       <c r="G3">
-        <v>5.4709000000000001E-2</v>
+        <v>7.4681999999999998E-2</v>
       </c>
       <c r="H3">
-        <v>5.1583999999999998E-2</v>
+        <v>7.1710999999999997E-2</v>
       </c>
       <c r="I3">
-        <v>4.4913000000000002E-2</v>
+        <v>6.4866999999999994E-2</v>
       </c>
       <c r="J3">
-        <v>3.5250999999999998E-2</v>
+        <v>4.1674000000000003E-2</v>
       </c>
       <c r="K3">
-        <v>2.0344999999999999E-2</v>
+        <v>1.9753E-2</v>
       </c>
       <c r="L3">
-        <v>1.0824E-2</v>
+        <v>6.8329999999999997E-3</v>
       </c>
       <c r="M3">
-        <v>6.117E-3</v>
+        <v>1.4450000000000001E-3</v>
       </c>
       <c r="N3">
-        <v>3.3909999999999999E-3</v>
+        <v>1.9889999999999999E-3</v>
       </c>
       <c r="O3">
-        <v>2.6229999999999999E-3</v>
+        <v>1.794E-3</v>
       </c>
       <c r="P3">
-        <v>2.3210000000000001E-3</v>
+        <v>-6.8100000000000001E-3</v>
       </c>
       <c r="Q3">
-        <v>1.9849999999999998E-3</v>
+        <v>3.0299999999999999E-4</v>
       </c>
       <c r="R3">
-        <v>1.299E-3</v>
-      </c>
-      <c r="S3">
-        <v>3.29E-3</v>
-      </c>
-      <c r="T3">
-        <v>1.588E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -943,14 +910,8 @@
       <c r="R4">
         <v>0</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1003,12 +964,6 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="R5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="S5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="T5">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
